--- a/stock_historical_data/1mo/HUDCO.NS.xlsx
+++ b/stock_historical_data/1mo/HUDCO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3418,6 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3618,6 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3668,6 +3859,9 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3718,6 +3912,9 @@
       <c r="P65" t="n">
         <v>1</v>
       </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3768,6 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3818,6 +4018,9 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3868,6 +4071,9 @@
       <c r="P68" t="n">
         <v>0</v>
       </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3918,6 +4124,9 @@
       <c r="P69" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3968,6 +4177,9 @@
       <c r="P70" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4018,6 +4230,9 @@
       <c r="P71" t="n">
         <v>0</v>
       </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4068,6 +4283,9 @@
       <c r="P72" t="n">
         <v>0</v>
       </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4118,6 +4336,9 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4168,6 +4389,9 @@
       <c r="P74" t="n">
         <v>0</v>
       </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4218,6 +4442,9 @@
       <c r="P75" t="n">
         <v>1</v>
       </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4268,6 +4495,9 @@
       <c r="P76" t="n">
         <v>0</v>
       </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4318,6 +4548,9 @@
       <c r="P77" t="n">
         <v>0</v>
       </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4368,6 +4601,9 @@
       <c r="P78" t="n">
         <v>0</v>
       </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4418,6 +4654,9 @@
       <c r="P79" t="n">
         <v>0</v>
       </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4468,6 +4707,9 @@
       <c r="P80" t="n">
         <v>0</v>
       </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4518,6 +4760,9 @@
       <c r="P81" t="n">
         <v>0</v>
       </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4568,6 +4813,9 @@
       <c r="P82" t="n">
         <v>0</v>
       </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4618,6 +4866,9 @@
       <c r="P83" t="n">
         <v>0</v>
       </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4668,6 +4919,9 @@
       <c r="P84" t="n">
         <v>0</v>
       </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4718,6 +4972,60 @@
       <c r="P85" t="n">
         <v>0</v>
       </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B86" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="C86" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="D86" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="E86" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="F86" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I86" t="n">
+        <v>6</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>22</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/HUDCO.NS.xlsx
+++ b/stock_historical_data/1mo/HUDCO.NS.xlsx
@@ -5025,7 +5025,9 @@
       <c r="P86" t="n">
         <v>0</v>
       </c>
-      <c r="Q86" t="inlineStr"/>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/HUDCO.NS.xlsx
+++ b/stock_historical_data/1mo/HUDCO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q86"/>
+  <dimension ref="A1:R92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2164,7 +2259,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2323,7 +2427,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2535,7 +2651,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2800,7 +2931,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3224,7 +3379,10 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3330,7 +3491,10 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>1</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>1</v>
       </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>2</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>1</v>
       </c>
+      <c r="R75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4604,6 +4837,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4657,6 +4893,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4710,6 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4763,6 +5005,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4816,6 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4869,6 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4922,6 +5173,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4975,6 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5028,6 +5285,321 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B87" t="n">
+        <v>278.4158213434724</v>
+      </c>
+      <c r="C87" t="n">
+        <v>350.0112929501242</v>
+      </c>
+      <c r="D87" t="n">
+        <v>268.3221845397497</v>
+      </c>
+      <c r="E87" t="n">
+        <v>308.9935607910156</v>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>711249454</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I87" t="n">
+        <v>7</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>27</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B88" t="n">
+        <v>311.7148862172219</v>
+      </c>
+      <c r="C88" t="n">
+        <v>312.8034204311762</v>
+      </c>
+      <c r="D88" t="n">
+        <v>274.111185657684</v>
+      </c>
+      <c r="E88" t="n">
+        <v>277.7231140136719</v>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>256360970</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I88" t="n">
+        <v>8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>31</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B89" t="n">
+        <v>277.0304178322498</v>
+      </c>
+      <c r="C89" t="n">
+        <v>278.8611000512337</v>
+      </c>
+      <c r="D89" t="n">
+        <v>225.6716730748103</v>
+      </c>
+      <c r="E89" t="n">
+        <v>239.2782745361328</v>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>190398748</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>35</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B90" t="n">
+        <v>240.7100067138672</v>
+      </c>
+      <c r="C90" t="n">
+        <v>241.3800048828125</v>
+      </c>
+      <c r="D90" t="n">
+        <v>192.1100006103516</v>
+      </c>
+      <c r="E90" t="n">
+        <v>217.2299957275391</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>116847623</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I90" t="n">
+        <v>10</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>40</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B91" t="n">
+        <v>218.3800048828125</v>
+      </c>
+      <c r="C91" t="n">
+        <v>242.5</v>
+      </c>
+      <c r="D91" t="n">
+        <v>198.0099945068359</v>
+      </c>
+      <c r="E91" t="n">
+        <v>238.6100006103516</v>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>113175882</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I91" t="n">
+        <v>11</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>44</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>2</v>
+      </c>
+      <c r="R91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B92" t="n">
+        <v>240</v>
+      </c>
+      <c r="C92" t="n">
+        <v>262.7000122070312</v>
+      </c>
+      <c r="D92" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>225.6000061035156</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>134360240</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I92" t="n">
+        <v>12</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>48</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
